--- a/CASUAL/LA TICC/ANGCAYA, IRENE VILLANUEVA.xlsx
+++ b/CASUAL/LA TICC/ANGCAYA, IRENE VILLANUEVA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="124">
   <si>
     <t>PERIOD</t>
   </si>
@@ -394,6 +394,21 @@
   </si>
   <si>
     <t>UT(0-4-1)</t>
+  </si>
+  <si>
+    <t>UT(0-2-10)</t>
+  </si>
+  <si>
+    <t>UT(0-5-17)</t>
+  </si>
+  <si>
+    <t>UT(0-0-26)</t>
+  </si>
+  <si>
+    <t>UT(0-4-5)</t>
+  </si>
+  <si>
+    <t>UT(0-0-23)</t>
   </si>
 </sst>
 </file>
@@ -790,17 +805,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -810,6 +822,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1340,7 +1355,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1398,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1462,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1522,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1588,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1651,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1749,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1808,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1873,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1901,7 +1916,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1991,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2177,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2243,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2301,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2367,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2423,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2498,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2541,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2607,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2663,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2759,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K147" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K150" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3121,12 +3136,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K147"/>
+  <dimension ref="A2:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,14 +3171,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3174,14 +3189,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3194,16 +3209,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3229,18 +3244,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3287,7 +3302,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>61.977000000000004</v>
+        <v>59.927999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4456,11 +4471,15 @@
       <c r="A66" s="40">
         <v>44621</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -4496,11 +4515,15 @@
       <c r="A68" s="40">
         <v>44682</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="39"/>
+      <c r="D68" s="39">
+        <v>4.8000000000000008E-2</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -4516,11 +4539,15 @@
       <c r="A69" s="40">
         <v>44713</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="39"/>
+      <c r="D69" s="39">
+        <v>0.51</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -4536,11 +4563,15 @@
       <c r="A70" s="40">
         <v>44743</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4579,57 +4610,55 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="13">
-        <v>1.25</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C72" s="13"/>
       <c r="D72" s="39">
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="K72" s="49"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+      <c r="A73" s="40">
+        <v>44805</v>
+      </c>
       <c r="B73" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="39">
+        <v>2</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H73" s="39">
-        <v>2</v>
-      </c>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -4640,72 +4669,68 @@
         <v/>
       </c>
       <c r="H74" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="49">
-        <v>44848</v>
+      <c r="K74" s="20" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D75" s="39">
-        <v>2</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H75" s="39"/>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="39">
+        <v>1</v>
+      </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="49">
+        <v>44848</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>0.27100000000000002</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H76" s="39">
-        <v>1</v>
-      </c>
+      <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="49">
-        <v>44848</v>
-      </c>
+      <c r="K76" s="49"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
       <c r="D77" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
@@ -4716,9 +4741,7 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="49">
-        <v>44888</v>
-      </c>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
@@ -4739,7 +4762,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="49">
-        <v>44881</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4764,15 +4787,17 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
-      <c r="D80" s="39"/>
+      <c r="D80" s="39">
+        <v>1</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
@@ -4782,53 +4807,55 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="49">
+        <v>44888</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="39">
-        <v>2.1000000000000005E-2</v>
-      </c>
+      <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="39"/>
+      <c r="H81" s="39">
+        <v>1</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="49">
+        <v>44881</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B82" s="20"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>0.502</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39">
-        <v>1</v>
-      </c>
+      <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="49">
-        <v>44897</v>
-      </c>
+      <c r="K82" s="49"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>56</v>
@@ -4843,46 +4870,36 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H83" s="39">
-        <v>1</v>
-      </c>
+      <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="49">
-        <v>44956</v>
-      </c>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D84" s="39"/>
+        <v>117</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="39">
+        <v>2.1000000000000005E-2</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H84" s="39">
-        <v>1</v>
-      </c>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="49">
-        <v>44970</v>
-      </c>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="A85" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -4892,26 +4909,30 @@
         <v/>
       </c>
       <c r="H85" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20" t="s">
-        <v>103</v>
+      <c r="K85" s="49">
+        <v>44897</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>44927</v>
+      </c>
       <c r="B86" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39">
         <v>1</v>
@@ -4919,14 +4940,16 @@
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="49">
-        <v>44984</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B87" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
@@ -4937,54 +4960,62 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H87" s="39"/>
+      <c r="H87" s="39">
+        <v>1</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="49">
+        <v>44970</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A88" s="40"/>
+      <c r="B88" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H88" s="39"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="39">
+        <v>2</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="41">
-        <v>45047</v>
-      </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D89" s="43"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="39"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="42">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H89" s="43"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="39">
+        <v>1</v>
+      </c>
       <c r="I89" s="9"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="15"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="49">
+        <v>44984</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="41">
-        <v>45078</v>
+      <c r="A90" s="40">
+        <v>44986</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13">
@@ -5003,8 +5034,8 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="41">
-        <v>45108</v>
+      <c r="A91" s="40">
+        <v>45017</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5024,31 +5055,29 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
-        <v>45139</v>
-      </c>
-      <c r="B92" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B92" s="15"/>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
-      <c r="D92" s="39"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H92" s="39"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="42">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H92" s="43"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="15"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
-        <v>45170</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>47</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B93" s="20"/>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
@@ -5062,37 +5091,33 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="49">
-        <v>45195</v>
-      </c>
+      <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" s="13"/>
+      <c r="A94" s="41">
+        <v>45108</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="49">
-        <v>45197</v>
-      </c>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
-        <v>45200</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>49</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B95" s="20"/>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
@@ -5103,18 +5128,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H95" s="39">
-        <v>2</v>
-      </c>
+      <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>47</v>
@@ -5133,13 +5154,13 @@
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="49">
-        <v>45271</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5152,15 +5173,17 @@
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="49" t="s">
-        <v>114</v>
+      <c r="K97" s="49">
+        <v>45197</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
-        <v>45261</v>
-      </c>
-      <c r="B98" s="20"/>
+        <v>45200</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C98" s="13">
         <v>1.25</v>
       </c>
@@ -5171,34 +5194,44 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H98" s="39"/>
+      <c r="H98" s="39">
+        <v>2</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="A99" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="49">
+        <v>45271</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="41">
-        <v>45292</v>
-      </c>
-      <c r="B100" s="20"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
@@ -5210,20 +5243,24 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="49" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
@@ -5231,8 +5268,8 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="41">
-        <v>45352</v>
+      <c r="A102" s="48" t="s">
+        <v>113</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5250,7 +5287,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5268,7 +5305,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5286,7 +5323,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5304,7 +5341,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5322,7 +5359,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5340,7 +5377,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5358,7 +5395,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5376,7 +5413,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5394,7 +5431,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5411,8 +5448,8 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="48" t="s">
-        <v>116</v>
+      <c r="A112" s="41">
+        <v>45566</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5430,7 +5467,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5448,7 +5485,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5465,7 +5502,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="48" t="s">
+        <v>116</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -5481,7 +5520,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+      <c r="A116" s="41">
+        <v>45658</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5497,7 +5538,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+      <c r="A117" s="41">
+        <v>45689</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5977,34 +6020,82 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="43"/>
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H147" s="43"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="15"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="41"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="43"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6072,14 +6163,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6090,14 +6181,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6110,14 +6201,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6143,18 +6234,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8889,15 +8980,13 @@
         <v>44.792000000000002</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>4</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.502</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
